--- a/_cacao_analysis/Data/MCA_contrib_standarized_individuals2explain.xlsx
+++ b/_cacao_analysis/Data/MCA_contrib_standarized_individuals2explain.xlsx
@@ -13,16 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="MCA_contrib_standarized_individ" sheetId="1" r:id="rId1"/>
+    <sheet name="MCA_cos2_individuals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MCA_contrib_standarized_individ!$B$1:$K$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MCA_cos2_individuals!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
   <si>
     <t>Ambiente</t>
   </si>
@@ -183,9 +185,6 @@
     <t>Santander-SCC80</t>
   </si>
   <si>
-    <t>Tiene fenil alcohol etílico, tiene 1H-pirrol-2-carboxaldehído, tiene benzoilformato de etilo, tiene 2 heptanol, tiene 3-Metil-1-butanol, tiene 3-hidroxi-2-butanona, tampoco tiene 3-hidroxi-2-butanona</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -195,16 +194,46 @@
     <t>Dim 1</t>
   </si>
   <si>
-    <t>No tiene fenil alcohol etílico, tampoco tiene 1H-pirrol-2-carboxaldehído, tampoco tiene benzoilformato de etilo, tampoco presenta 2-Heptanol, tiene 3-Metil-1-butanol, tiene 3-hidroxi-2-butanona</t>
-  </si>
-  <si>
-    <t>No tiene fenil alcohol etílico, tampoco tiene 1H-pirrol-2-carboxaldehído, tampoco tiene benzoilformato de etilo, tampoco presenta 2-Heptanol, no tiene 3-Metil-1-butanol, no tiene 3-hidroxi-2-butanona</t>
-  </si>
-  <si>
-    <t>No tiene fenil alcohol etílico, tampoco tiene 1H-pirrol-2-carboxaldehído, tampoco tiene benzoilformato de etilo, no tiene 2 Heptanol, no tiene 3-Metil-1-butanol, no tiene 3-hidroxi-2-butanona</t>
-  </si>
-  <si>
     <t>Similar a</t>
+  </si>
+  <si>
+    <t>No fenil alcohol etílico, no 1H-pirrol-2-carboxaldehído, no benzoilformato de etilo, no 2-Heptanol, no 3-Metil-1-butanol, no 3-hidroxi-2-butanona</t>
+  </si>
+  <si>
+    <t>No fenil alcohol etílico, no 1H-pirrol-2-carboxaldehído, no benzoilformato de etilo, no 2-Heptanol, si 3-Metil-1-butanol, si 3-hidroxi-2-butanona</t>
+  </si>
+  <si>
+    <t>No fenil alcohol etílico, no 1H-pirrol-2-carboxaldehído, no benzoilformato de etilo, no 2 Heptanol, no 3-Metil-1-butanol, no 3-hidroxi-2-butanona</t>
+  </si>
+  <si>
+    <t>Si fenil alcohol etílico,</t>
+  </si>
+  <si>
+    <t>Si fenil alcohol etílico, si 1H-pirrol-2-carboxaldehído, si benzoilformato de etilo, si 2 heptanol, si 3-Metil-1-butanol, si 3-hidroxi-2-butanona</t>
+  </si>
+  <si>
+    <t>Si fenil alcohol etílico, si 1H-pirrol-2-carboxaldehído, si benzoilformato de etilo, si 2 heptanol, si 3-Metil-1-butanol, no 3-hidroxi-2-butanona</t>
+  </si>
+  <si>
+    <t>Dim 2</t>
+  </si>
+  <si>
+    <t>Dim 3</t>
+  </si>
+  <si>
+    <t>Dim 4</t>
+  </si>
+  <si>
+    <t>Dim 5</t>
+  </si>
+  <si>
+    <t>Dim 6</t>
+  </si>
+  <si>
+    <t>Dim 7</t>
+  </si>
+  <si>
+    <t>Dim 8</t>
   </si>
 </sst>
 </file>
@@ -212,7 +241,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -693,7 +722,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1022,12 +1051,12 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="8.109375" bestFit="1" customWidth="1"/>
@@ -1067,17 +1096,17 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
@@ -1111,17 +1140,17 @@
         <v>8.0010256637577399E-3</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
@@ -1155,14 +1184,14 @@
         <v>0.27501784291022202</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
@@ -1196,14 +1225,14 @@
         <v>2.47833203343884E-3</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
@@ -1240,14 +1269,14 @@
         <v>59</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
@@ -1280,12 +1309,15 @@
       <c r="K6" s="1">
         <v>1.9186930140552901E-2</v>
       </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
@@ -1318,12 +1350,15 @@
       <c r="K7" s="1">
         <v>3.1223292320623101E-2</v>
       </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
@@ -1357,11 +1392,11 @@
         <v>0.24230640473995399</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
@@ -1395,11 +1430,11 @@
         <v>3.71759990669671E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B10" t="s">
@@ -1434,7 +1469,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B11" t="s">
@@ -1469,7 +1504,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1504,7 +1539,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
@@ -1539,7 +1574,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
@@ -1574,7 +1609,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
@@ -1609,7 +1644,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
@@ -1644,7 +1679,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
@@ -1679,7 +1714,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B18" t="s">
@@ -1714,7 +1749,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B19" t="s">
@@ -1749,7 +1784,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
@@ -1784,7 +1819,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B21" t="s">
@@ -1819,7 +1854,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
@@ -1854,7 +1889,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
@@ -1889,7 +1924,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
@@ -1924,7 +1959,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
@@ -1959,7 +1994,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
@@ -1994,7 +2029,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
@@ -2029,7 +2064,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2064,7 +2099,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
@@ -2099,7 +2134,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
@@ -2134,7 +2169,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B31" t="s">
@@ -2272,4 +2307,1067 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.40783040928714998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.55355410359964E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.52228522543916E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.3614567845365093E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.11254680093969401</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.7458994736905603E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.55705248385866E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.0764418875765301E-3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.368480091168848</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.72415858239592E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.11047548869592599</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.07702908277804E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.61588972030784E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9105971533925601E-5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.8911952607502901E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8.9328039967826095E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.30250042587702303</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.160371800717518</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.10335589727332201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.1793380690387302E-6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.8368978561355299E-4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.6313475642200001E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.6212297849561999E-6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.5554186605665801E-3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.279855270097074</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.2262234344231101E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.27532206538335902</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.1372984986515E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.5930724757772401E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.5559469454745399E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.40115587755106E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.5684027079164703E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.27914995250336799</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.2992248772628701E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0353380957601402E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0882762470548899E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.4131973944964899E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.8818951104533599E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.5925138859281601E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.9451008607192994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.26393327417732798</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.1906080176776096E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.16192782622969701</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.3416835131066401E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.9000874110572003E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.11921841881961499</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.4631385695884701E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.20284709089085E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.23441157618245601</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.26207167617218002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.90934227891317E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.8105509702781E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.4892619091933497E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.6808242727041001E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.6463131170102205E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.89643565606747E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.174701213387224</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.120750228645935</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.6862396957039798E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.9915420445576503E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.128670720814998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.1522954421790601E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.194826197263161</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.31911974319504E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.17377058299086101</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.91704896023626E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.15897320712294299</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.0252801615318301E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.22864280149365199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.13537344165645501</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9.3444307067798405E-4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.47254915555276E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.16113488881923099</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.159526418828008</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.6388935241492797E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.10778674484157801</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.6610586187723E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.6566989753315403E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2.9637647948268599E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.2913671516906696E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.14825704191571901</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.9399048849879801E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.203183470498779</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.25519617744598E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8.4831881497747397E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.45918152705873E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.38332770802759E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.11989172582874399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.145612631386663</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.114610796337722</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.4392388225510501E-3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.4152949077488401E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.21166374310915601</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.7856590610652999E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9.5039974568412802E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.3538863191051503E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.13968584447493099</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.36643721554445102</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.15716933680359E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.8227167034631999E-3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.56196898672429E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.14088009302624E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5.2163797117641599E-3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.5224849812852204E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.12870105914854801</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.10417773024808</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.30850077268147702</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.2273848596606902E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.2779198969880002E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.4356657439078704E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4.6693004140331403E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.0029892281277904E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.115509691255375</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.7645456089570398E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.4941602287358305E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.3088994136610202E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.5198911672819398E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.35678067052698298</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2.3795401183440801E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4.79990460079028E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.10853736260321099</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.4259725708587003E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.26708258365766E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.2874843637508</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.3024802447997803E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.13884089731785701</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.6980049149357898E-3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.7171649351225E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.107549344657744</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.43989805976981E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.9377841031231401E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.7603334665919806E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.7064461601831302E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.8126898202811705E-3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.22445082538203401</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.6205666054386701E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.5958083119218395E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.57979753597987E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.3154898175409E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.0329340691195897E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.19307687025874301</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.8060590839662702E-3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.0702588380987504E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3.3198369841384802E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.8421014063786201E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.9354073782991001E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.33009780046410597</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.3506970247127001E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.2989871222036004E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.12194143531797499</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.3339145791760498E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4.1269707015081702E-2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5.2465360873748298E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.6389660190141099E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.115629458721016</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.2815915926471496E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.24135682236683301</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.7028122035152001E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.12472252206085301</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5.9590222108441601E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.2559793860983797E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.3078605189231E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.4128382668866999E-3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.4562082507624899E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.150173087333868</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.2539113177759003E-3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.5036568109958299E-3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.27559535007765301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.24508550511122E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.226254564055929</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9.0761939420326901E-4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.163349318294052</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.2761567953144099E-6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.2300043310799099E-3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.10972370575977899</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7.1618961177274898E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.1745883158117503E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.4332631709552199E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.3242723363565199E-3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.24924243535245999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.9935698598834601E-4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9.8309367053753705E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.25246422379801498</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.4541426181612699E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.6732287392520499E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9.9496741758147694E-3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4.90957242575991E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.43885594490944102</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.21046140408481701</v>
+      </c>
+      <c r="G25" s="1">
+        <v>4.17371982472588E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.8853502312739199E-4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2.7162302503547699E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.0678120725498201E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4.9583889978044001E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.38490119480840701</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.6916020682181801E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8.2469823254021205E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.9836101636916997E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.5701858761079203E-4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.14611851339812901</v>
+      </c>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.46161710732742E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.33503855936883797</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.6019343908229495E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.7002739824779002E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4.3055247585239202E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.7845609529166498E-3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.17812610732436501</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.9147389519574501E-2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.78352129281051E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.34021847201038902</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.3010444600117496E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.79797908533393E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.5057203523386499E-3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.9482453040415899E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4.6782685435122297E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.2697868719748999E-2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.8593065835304499E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7.8646863528633204E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.3976812269896101E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.10681770229627099</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.8233759844635101E-4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.53902009675212603</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.0637928436194301E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.7540180148516202E-4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.97324409329605E-3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.19788983335492999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>6.2654296093918697E-3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.242632630704186</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.15997187641433899</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.6089143173804802E-4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6.4136016726536599E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1.19330250754302E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2.8306322591956501E-5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.26657159253332602</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.3654962394967799E-4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.4951973486863403E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4.3368331190393097E-3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.52683043656271E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6.63321459849531E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.21401231456043199</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J31">
+    <sortState ref="A2:J31">
+      <sortCondition descending="1" ref="B2:B31"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:J31">
+    <sortCondition ref="B2:B31"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:B31">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C31">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E31">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>